--- a/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6171"/>
+  <dimension ref="A1:C6172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105273,6 +105273,23 @@
         </is>
       </c>
     </row>
+    <row r="6172">
+      <c r="A6172" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B6172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6172" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6172"/>
+  <dimension ref="A1:C6173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105290,6 +105290,23 @@
         </is>
       </c>
     </row>
+    <row r="6173">
+      <c r="A6173" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B6173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6173" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6173"/>
+  <dimension ref="A1:C6176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105307,6 +105307,57 @@
         </is>
       </c>
     </row>
+    <row r="6174">
+      <c r="A6174" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B6174" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C6174" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B6175" t="inlineStr">
+        <is>
+          <t>NeuN</t>
+        </is>
+      </c>
+      <c r="C6175" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="6176">
+      <c r="A6176" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B6176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6176" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLP.FLU.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6176"/>
+  <dimension ref="A1:C6177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -105358,6 +105358,23 @@
         </is>
       </c>
     </row>
+    <row r="6177">
+      <c r="A6177" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B6177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6177" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
